--- a/設計書/基本設計/機能一覧表.xlsx
+++ b/設計書/基本設計/機能一覧表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197D1930-7DED-4828-B1F5-C9D143B4B470}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD20B0-1AA9-4D7F-8A5F-47C2CFBF3C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -167,22 +167,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>受注の作成・修正・削除</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -211,20 +195,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント管理付きブログシステム</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント管理付きブログシステム</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -275,27 +245,7 @@
     <t>ログイン処理</t>
   </si>
   <si>
-    <t>更新画面表示</t>
-  </si>
-  <si>
     <t>登録済みの情報を編集できる画面を表示する</t>
-  </si>
-  <si>
-    <t>更新確認</t>
-  </si>
-  <si>
-    <t>更新完了</t>
-  </si>
-  <si>
-    <t>入力情報で認証を行い、TOP画面へ移行する</t>
-    <rPh sb="17" eb="19">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント更新機能</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アカウント登録機能</t>
@@ -339,16 +289,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント検索機能</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>削除するアカウント情報を削除画面に表示する</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -372,23 +312,148 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>指定したアカウント情報の削除フラグをDBでたて、完了画面を表示する</t>
-    <rPh sb="12" eb="14">
+    <t>共有ToDoListシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント変更機能</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変更画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変更確認</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変更完了</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿管理</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力情報で認証を行い、メインページ画面へ移行する</t>
+    <rPh sb="20" eb="22">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定したアカウント情報をDBから削除し、完了画面を表示する</t>
+    <rPh sb="16" eb="18">
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>検索画面表示</t>
-  </si>
-  <si>
-    <t>検索結果表示</t>
-  </si>
-  <si>
-    <t>検索条件（ID、名前、メールなど）を入力する画面を表示する</t>
-  </si>
-  <si>
-    <t>入力条件に一致するアカウント情報を一覧表示する</t>
+    <t>入力内容をDBに登録し、表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DBに保存された内容を表示</t>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿内容入力</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ナイヨウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿閲覧</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウエツラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿内容表示</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウナイヨウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マイページ管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿内容確認</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウナイヨウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿内容削除</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウナイヨウサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿削除</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DBに保存された内容を削除</t>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -658,7 +723,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +783,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -742,6 +812,12 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,20 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -940,7 +1002,7 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2025/10/8</a:t>
+              <a:t>2025/10/13</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1649,25 +1711,25 @@
     <row r="8" spans="1:176" ht="12.95" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="F8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1686,26 +1748,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="B9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1724,22 +1786,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1954,18 +2016,18 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="AA17" s="7"/>
@@ -1987,16 +2049,16 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="AA18" s="7"/>
@@ -2018,16 +2080,16 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -2259,12 +2321,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="46">
-        <v>45938</v>
-      </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="F26" s="49">
+        <v>45943</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="10" t="s">
         <v>10</v>
       </c>
@@ -2287,10 +2349,10 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD26" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="25"/>
@@ -2897,7 +2959,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2910,37 +2972,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2974,14 +3036,14 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="51"/>
+      <c r="AC2" s="60"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3007,53 +3069,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="52" t="s">
+      <c r="Z3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="53"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="54" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="54" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="56"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="65"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3201,20 +3263,20 @@
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3222,7 +3284,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="13"/>
       <c r="P5" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3249,15 +3311,15 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="63" t="s">
-        <v>28</v>
+      <c r="P6" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3284,15 +3346,15 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="63" t="s">
-        <v>30</v>
+      <c r="P7" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3314,22 +3376,22 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="63" t="s">
-        <v>31</v>
+      <c r="F8" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="63" t="s">
-        <v>32</v>
+      <c r="J8" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="63" t="s">
-        <v>37</v>
+      <c r="P8" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -3351,22 +3413,22 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="63" t="s">
-        <v>38</v>
+      <c r="F9" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="63" t="s">
-        <v>33</v>
+      <c r="J9" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="64" t="s">
-        <v>34</v>
+      <c r="P9" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -3392,8 +3454,8 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="63" t="s">
-        <v>35</v>
+      <c r="J10" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3401,7 +3463,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -3428,15 +3490,15 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="14" t="s">
-        <v>16</v>
+      <c r="P11" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3459,13 +3521,13 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="63" t="s">
-        <v>40</v>
+      <c r="J12" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3473,7 +3535,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="13"/>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -3499,8 +3561,8 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="63" t="s">
-        <v>41</v>
+      <c r="J13" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3508,7 +3570,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="13"/>
       <c r="P13" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -3534,16 +3596,16 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="63" t="s">
-        <v>42</v>
+      <c r="J14" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="63" t="s">
-        <v>47</v>
+      <c r="P14" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="15"/>
@@ -3560,7 +3622,9 @@
       <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -3571,16 +3635,16 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="63" t="s">
-        <v>48</v>
+      <c r="J15" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="65" t="s">
-        <v>50</v>
+      <c r="P15" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3602,20 +3666,22 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
-      <c r="J16" t="s">
-        <v>49</v>
+      <c r="J16" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="66" t="s">
-        <v>51</v>
+      <c r="P16" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3632,21 +3698,30 @@
       <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="11"/>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="13"/>
+      <c r="P17" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -3667,17 +3742,23 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="15"/>

--- a/設計書/基本設計/機能一覧表.xlsx
+++ b/設計書/基本設計/機能一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD20B0-1AA9-4D7F-8A5F-47C2CFBF3C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BAEEB6-AB69-449F-9B01-D9BECE886DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -167,25 +167,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>株式会社D.I様</t>
-    <rPh sb="7" eb="8">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>若狭</t>
@@ -723,7 +709,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,9 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -794,9 +777,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,11 +1297,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FT43"/>
+  <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:Q10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -1710,26 +1688,26 @@
     </row>
     <row r="8" spans="1:176" ht="12.95" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1748,35 +1726,28 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="38"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -1786,22 +1757,21 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1868,6 +1838,9 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -1964,9 +1937,6 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
@@ -1986,15 +1956,18 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="L16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="AA16" s="7"/>
@@ -2016,18 +1989,16 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="AA17" s="7"/>
@@ -2049,18 +2020,21 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -2080,16 +2054,15 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -2170,7 +2143,9 @@
     </row>
     <row r="22" spans="1:32" ht="12.95" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2203,9 +2178,7 @@
     </row>
     <row r="23" spans="1:32" ht="12.95" customHeight="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2238,53 +2211,64 @@
     </row>
     <row r="24" spans="1:32" ht="12.95" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="25"/>
     </row>
     <row r="25" spans="1:32" ht="12.95" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="43">
+        <v>45943</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2305,31 +2289,25 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="25"/>
     </row>
     <row r="26" spans="1:32" ht="12.95" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="49">
-        <v>45943</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2348,12 +2326,8 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="13"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="25"/>
     </row>
@@ -2868,80 +2842,45 @@
       <c r="AF41" s="25"/>
     </row>
     <row r="42" spans="1:32" ht="12.95" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="25"/>
-    </row>
-    <row r="43" spans="1:32" ht="12.95" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="31"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="L17:U19"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F9:Q10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="L16:U18"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F8:Q9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -2972,37 +2911,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3036,14 +2975,14 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="60"/>
+      <c r="AC2" s="54"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3069,53 +3008,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC3" s="62"/>
+      <c r="Z3" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="56"/>
     </row>
     <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="63" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="65"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="59"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3263,20 +3202,20 @@
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3284,7 +3223,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="13"/>
       <c r="P5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3311,15 +3250,15 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="35" t="s">
-        <v>25</v>
+      <c r="P6" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3346,15 +3285,15 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="35" t="s">
-        <v>27</v>
+      <c r="P7" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3376,22 +3315,22 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="35" t="s">
-        <v>28</v>
+      <c r="F8" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="35" t="s">
-        <v>29</v>
+      <c r="J8" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="35" t="s">
-        <v>45</v>
+      <c r="P8" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -3413,22 +3352,22 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="35" t="s">
-        <v>39</v>
+      <c r="F9" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="35" t="s">
-        <v>40</v>
+      <c r="J9" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="36" t="s">
-        <v>30</v>
+      <c r="P9" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -3454,8 +3393,8 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="35" t="s">
-        <v>41</v>
+      <c r="J10" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3463,7 +3402,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -3490,15 +3429,15 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="35" t="s">
-        <v>27</v>
+      <c r="P11" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3521,13 +3460,13 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="35" t="s">
-        <v>32</v>
+      <c r="J12" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3535,7 +3474,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="13"/>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -3561,8 +3500,8 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="35" t="s">
-        <v>33</v>
+      <c r="J13" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3570,7 +3509,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="13"/>
       <c r="P13" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -3596,16 +3535,16 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="35" t="s">
-        <v>34</v>
+      <c r="J14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="35" t="s">
-        <v>46</v>
+      <c r="P14" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="15"/>
@@ -3623,28 +3562,28 @@
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="35" t="s">
-        <v>49</v>
+      <c r="J15" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="35" t="s">
-        <v>47</v>
+      <c r="P15" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3666,22 +3605,22 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="35" t="s">
-        <v>50</v>
+      <c r="F16" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="35" t="s">
-        <v>51</v>
+      <c r="J16" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="37" t="s">
-        <v>48</v>
+      <c r="P16" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3699,28 +3638,28 @@
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="37" t="s">
-        <v>48</v>
+      <c r="P17" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -3743,21 +3682,21 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="37" t="s">
-        <v>56</v>
+      <c r="P18" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>

--- a/設計書/基本設計/機能一覧表.xlsx
+++ b/設計書/基本設計/機能一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BAEEB6-AB69-449F-9B01-D9BECE886DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B17CE5-475B-4E9E-A58D-1CB4BCCFC3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -1299,7 +1299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -2897,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>

--- a/設計書/基本設計/機能一覧表.xlsx
+++ b/設計書/基本設計/機能一覧表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B17CE5-475B-4E9E-A58D-1CB4BCCFC3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEF66D5-F19D-4B6E-979E-F572743E187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
     <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -439,6 +439,40 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウトし、ログイン画面に移行</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>ログアウト機能追加</t>
+    <rPh sb="5" eb="9">
+      <t>キノウツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1299,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:Q9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AC25:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -2301,15 +2335,21 @@
     </row>
     <row r="26" spans="1:32" ht="12.95" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="10"/>
+      <c r="F26" s="43">
+        <v>45952</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2328,8 +2368,12 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="13"/>
+      <c r="AC26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="25"/>
     </row>
@@ -2878,11 +2922,12 @@
       <c r="AF42" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="L16:U18"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -2897,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:FQ42"/>
+  <dimension ref="A1:FQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3563,21 +3608,19 @@
       <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="32" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3585,11 +3628,11 @@
       <c r="N15" s="11"/>
       <c r="O15" s="13"/>
       <c r="P15" s="32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -3602,27 +3645,29 @@
       <c r="AC15" s="13"/>
     </row>
     <row r="16" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="32" t="s">
-        <v>48</v>
+      <c r="F16" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="34" t="s">
-        <v>46</v>
+      <c r="P16" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3639,20 +3684,18 @@
       <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="10" t="s">
-        <v>51</v>
+      <c r="F17" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
-      <c r="J17" t="s">
+      <c r="J17" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K17" s="11"/>
@@ -3678,19 +3721,21 @@
       <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="11" t="s">
-        <v>53</v>
+      <c r="J18" t="s">
+        <v>49</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -3698,11 +3743,11 @@
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
       <c r="P18" s="34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="15"/>
+      <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -3720,19 +3765,25 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="P19" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="Q19" s="11"/>
-      <c r="R19" s="15"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="15"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
@@ -3763,8 +3814,8 @@
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
@@ -3824,11 +3875,11 @@
       <c r="N22" s="11"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -4071,12 +4122,12 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -4437,6 +4488,12 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="13"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -4451,6 +4508,31 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="13"/>
+    </row>
+    <row r="43" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="13"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
